--- a/biology/Botanique/Physalacriaceae/Physalacriaceae.xlsx
+++ b/biology/Botanique/Physalacriaceae/Physalacriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Physalacriaceae (Physalacriacées) sont une famille de champignons basidiomycètes du Clade IV Marasmioïde de l'ordre des Agaricales. On y trouve les genres Armillaria et Flamulina, champignons à sporophores grégaires, cespiteux et fasciculés et Xerula dont le stipe est fin, élancé et profondément enterré. Les espèces du genre Physalacria sont des clavarioïdes cespiteux minuscules en forme de massue dont la tête est dégonflées.
 </t>
@@ -511,7 +523,9 @@
           <t>Position des Physalacriaceae dans le clade des Marasmioïdes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycètes
@@ -553,7 +567,9 @@
           <t>Phylogramme des Physalacriaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Physalacriaceae
@@ -600,9 +616,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (26 janvier 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (26 janvier 2023) :
 Acurtis Fr., 1849
 Armillaria (Fr.) Staude, 1857
 Baumanniella Henn., 1897
@@ -663,9 +681,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Physalacriaceae Corner, 1970[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Physalacriaceae Corner, 1970.
 </t>
         </is>
       </c>
@@ -694,7 +714,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) E.J.H. Corner, « Supplement to 'A monograph of Clavaria and allied genera' », Nova Hedwigia, Allemagne, vol. 33,‎ 1970, p. 1-299 (ISSN 0029-5035).</t>
         </is>
